--- a/test.xlsx
+++ b/test.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="scheme" sheetId="2" r:id="rId2"/>
+    <sheet name="entry_params" sheetId="3" r:id="rId2"/>
+    <sheet name="scheme" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +57,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>E,F,G</t>
   </si>
   <si>
@@ -69,6 +67,18 @@
   </si>
   <si>
     <t>A,B</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Item #</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Entrance</t>
   </si>
 </sst>
 </file>
@@ -605,15 +615,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" activeCellId="1" sqref="C14 J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,12 +640,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -649,8 +662,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
@@ -663,8 +679,11 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -677,11 +696,14 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
@@ -694,11 +716,14 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -711,8 +736,14 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2</v>
       </c>
@@ -725,11 +756,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>3</v>
       </c>
@@ -742,11 +776,14 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1</v>
       </c>
@@ -759,11 +796,14 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1</v>
       </c>
@@ -776,11 +816,14 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>1</v>
       </c>
@@ -793,11 +836,14 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0</v>
       </c>
@@ -810,11 +856,14 @@
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>-1</v>
       </c>
@@ -827,11 +876,14 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>-2</v>
       </c>
@@ -844,11 +896,14 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0</v>
       </c>
@@ -861,11 +916,14 @@
       <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0</v>
       </c>
@@ -878,11 +936,14 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>-1</v>
       </c>
@@ -895,11 +956,14 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>-2</v>
       </c>
@@ -912,7 +976,10 @@
       <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -924,10 +991,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Entrance</t>
+  </si>
+  <si>
+    <t>Prob/min</t>
   </si>
 </sst>
 </file>
@@ -991,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1003,7 +1006,7 @@
     <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1013,8 +1016,11 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1023,6 +1029,93 @@
       </c>
       <c r="C2" t="s">
         <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="entry_params" sheetId="3" r:id="rId2"/>
     <sheet name="scheme" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>60</v>
@@ -674,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F3">
         <v>60</v>
@@ -688,16 +688,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F4">
         <v>60</v>
@@ -708,16 +708,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="F5">
         <v>60</v>
@@ -728,16 +728,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F6">
         <v>60</v>
@@ -748,16 +748,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F8">
         <v>60</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="F10">
         <v>60</v>
@@ -828,16 +828,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="F11">
         <v>60</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="F12">
         <v>60</v>
@@ -868,16 +868,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D13">
-        <v>-2</v>
+        <v>-200</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="F13">
         <v>60</v>
@@ -888,16 +888,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>-2</v>
+        <v>-200</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D14">
-        <v>-3</v>
+        <v>-300</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="F14">
         <v>60</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F15">
         <v>60</v>
@@ -931,13 +931,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="F16">
         <v>60</v>
@@ -948,16 +948,16 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D17">
-        <v>-2</v>
+        <v>-200</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F17">
         <v>60</v>
@@ -968,16 +968,16 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>-2</v>
+        <v>-200</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="D18">
-        <v>-3</v>
+        <v>-300</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="F18">
         <v>60</v>
@@ -996,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:AX55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -621,7 +621,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,7 +683,7 @@
         <v>200</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -800,7 +800,7 @@
         <v>300</v>
       </c>
       <c r="F9">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -840,7 +840,7 @@
         <v>400</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -997,7 +997,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1031,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1045,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1059,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:AX55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1031,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1045,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1059,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1101,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1115,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
